--- a/data/stats/Tari Eason.xlsx
+++ b/data/stats/Tari Eason.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,56 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>@ Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>G
+107-143</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
